--- a/src/main/resources/中交智库-新闻频道-内容渠道（20160811）（新）.xlsx
+++ b/src/main/resources/中交智库-新闻频道-内容渠道（20160811）（新）.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\KCrawler\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
     <author>Kinglf</author>
   </authors>
   <commentList>
-    <comment ref="D15" authorId="0">
+    <comment ref="D15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D33" authorId="0">
+    <comment ref="D33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D36" authorId="0">
+    <comment ref="D36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0">
+    <comment ref="D37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +146,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D51" authorId="0">
+    <comment ref="D51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -211,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D61" authorId="0">
+    <comment ref="D61" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="232">
   <si>
     <t>频道</t>
   </si>
@@ -901,95 +906,90 @@
     <t>防火资源网-船舶设备</t>
   </si>
   <si>
+    <t>防火资源网-飞机材料</t>
+  </si>
+  <si>
+    <t>http://www.firetc.com/news/list.php?catid=837</t>
+  </si>
+  <si>
+    <t>防火资源网-轨道车辆</t>
+  </si>
+  <si>
+    <t>http://www.firetc.com/news/list.php?catid=834</t>
+  </si>
+  <si>
+    <t>中国科技网-前沿科技</t>
+  </si>
+  <si>
+    <t>http://www.wokeji.com/qyts/1_qykj/index_1.shtml</t>
+  </si>
+  <si>
+    <t>http://www.wokeji.com/explore/qykj/</t>
+  </si>
+  <si>
+    <t>今日头条-中国铁路</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/m5510943119/</t>
+  </si>
+  <si>
+    <t>智能交通世界网-国际前沿</t>
+  </si>
+  <si>
+    <t>http://www.its114.com/html/news/guojiqianyan/</t>
+  </si>
+  <si>
+    <t>交通科技网-科技新闻</t>
+  </si>
+  <si>
+    <t>http://www.cjtkj.com/research/</t>
+  </si>
+  <si>
+    <t>管窥10</t>
+  </si>
+  <si>
+    <t>轨道交通自动化社区</t>
+  </si>
+  <si>
+    <t>http://metro.controleng.cn/IndustryNews.aspx</t>
+  </si>
+  <si>
+    <t>中国航空新闻网-观点频道</t>
+  </si>
+  <si>
+    <t>http://www.cannews.com.cn/xwzx/perspective/</t>
+  </si>
+  <si>
+    <t>中华铁道网-铁路评论</t>
+  </si>
+  <si>
+    <t>http://www.chnrailway.com/comments/Commentary/</t>
+  </si>
+  <si>
+    <t>中国国际海运网深度分析</t>
+  </si>
+  <si>
+    <t>http://info.shippingchina.com/bluenews/index/blist/type/%E6%B7%B1%E5%BA%A6%E5%88%86%E6%9E%90.html</t>
+  </si>
+  <si>
+    <t>中华铁道网-科技专题</t>
+  </si>
+  <si>
+    <t>http://www.chnrailway.com/tdkj/kjzt/index.shtml</t>
+  </si>
+  <si>
+    <t>睿见11</t>
+  </si>
+  <si>
     <t>http://www.firetc.com/news/list.php?catid=836</t>
-  </si>
-  <si>
-    <t>防火资源网-飞机材料</t>
-  </si>
-  <si>
-    <t>http://www.firetc.com/news/list.php?catid=837</t>
-  </si>
-  <si>
-    <t>防火资源网-轨道车辆</t>
-  </si>
-  <si>
-    <t>http://www.firetc.com/news/list.php?catid=834</t>
-  </si>
-  <si>
-    <t>中国科技网-前沿科技</t>
-  </si>
-  <si>
-    <t>http://www.wokeji.com/qyts/1_qykj/index_1.shtml</t>
-  </si>
-  <si>
-    <t>http://www.wokeji.com/explore/qykj/</t>
-  </si>
-  <si>
-    <t>今日头条-中国铁路</t>
-  </si>
-  <si>
-    <t>http://www.toutiao.com/m5510943119/</t>
-  </si>
-  <si>
-    <t>智能交通世界网-国际前沿</t>
-  </si>
-  <si>
-    <t>http://www.its114.com/html/news/guojiqianyan/</t>
-  </si>
-  <si>
-    <t>交通科技网-科技新闻</t>
-  </si>
-  <si>
-    <t>http://www.cjtkj.com/research/</t>
-  </si>
-  <si>
-    <t>管窥10</t>
-  </si>
-  <si>
-    <t>轨道交通自动化社区</t>
-  </si>
-  <si>
-    <t>http://metro.controleng.cn/IndustryNews.aspx</t>
-  </si>
-  <si>
-    <t>中国航空新闻网-观点频道</t>
-  </si>
-  <si>
-    <t>http://www.cannews.com.cn/xwzx/perspective/</t>
-  </si>
-  <si>
-    <t>中华铁道网-铁路评论</t>
-  </si>
-  <si>
-    <t>http://www.chnrailway.com/comments/Commentary/</t>
-  </si>
-  <si>
-    <t>中国国际海运网深度分析</t>
-  </si>
-  <si>
-    <t>http://info.shippingchina.com/bluenews/index/blist/type/%E6%B7%B1%E5%BA%A6%E5%88%86%E6%9E%90.html</t>
-  </si>
-  <si>
-    <t>中华铁道网-科技专题</t>
-  </si>
-  <si>
-    <t>http://www.chnrailway.com/tdkj/kjzt/index.shtml</t>
-  </si>
-  <si>
-    <t>睿见11</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,143 +1065,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1226,182 +1107,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1461,249 +1168,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1728,22 +1196,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1751,80 +1237,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2114,15 +1544,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="31.625" style="3" customWidth="1"/>
@@ -2130,7 +1559,7 @@
     <col min="5" max="6" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="27" customHeight="1" spans="1:6">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="27" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2150,17 +1579,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5">
@@ -2170,13 +1599,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="5">
@@ -2186,13 +1615,13 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="5">
@@ -2202,13 +1631,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+    <row r="5" spans="1:7" s="2" customFormat="1">
+      <c r="A5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="5"/>
@@ -2216,13 +1645,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+    <row r="6" spans="1:7" s="2" customFormat="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="5"/>
@@ -2230,13 +1659,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="5">
@@ -2246,13 +1675,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="5">
@@ -2262,13 +1691,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="5">
@@ -2278,13 +1707,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="19"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="5">
@@ -2294,13 +1723,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="5">
@@ -2310,13 +1739,13 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+    <row r="12" spans="1:7" s="2" customFormat="1">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="5"/>
@@ -2324,27 +1753,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:6">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1">
+      <c r="A14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="5">
@@ -2354,13 +1783,13 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:7">
-      <c r="A15" s="16"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="17" t="s">
+    <row r="15" spans="1:7" s="2" customFormat="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E15" s="5">
@@ -2373,11 +1802,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:6">
-      <c r="A16" s="16"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="13" t="s">
+    <row r="16" spans="1:7" s="2" customFormat="1">
+      <c r="A16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E16" s="5">
@@ -2387,11 +1816,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:6">
-      <c r="A17" s="16"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19" t="s">
+    <row r="17" spans="1:7" s="2" customFormat="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="5">
@@ -2401,11 +1830,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:6">
-      <c r="A18" s="16"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19" t="s">
+    <row r="18" spans="1:7" s="2" customFormat="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="13" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="5">
@@ -2415,11 +1844,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
-      <c r="A19" s="16"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19" t="s">
+    <row r="19" spans="1:7" s="2" customFormat="1">
+      <c r="A19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="5">
@@ -2429,11 +1858,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
-      <c r="A20" s="16"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19" t="s">
+    <row r="20" spans="1:7" s="2" customFormat="1">
+      <c r="A20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="5">
@@ -2443,11 +1872,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:6">
-      <c r="A21" s="16"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19" t="s">
+    <row r="21" spans="1:7" s="2" customFormat="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="5">
@@ -2457,11 +1886,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:6">
-      <c r="A22" s="16"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19" t="s">
+    <row r="22" spans="1:7" s="2" customFormat="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="5">
@@ -2471,11 +1900,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:6">
-      <c r="A23" s="16"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19" t="s">
+    <row r="23" spans="1:7" s="2" customFormat="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="5">
@@ -2485,11 +1914,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:6">
-      <c r="A24" s="16"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19" t="s">
+    <row r="24" spans="1:7" s="2" customFormat="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="13" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="5">
@@ -2499,11 +1928,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:6">
-      <c r="A25" s="16"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19" t="s">
+    <row r="25" spans="1:7" s="2" customFormat="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="5">
@@ -2513,13 +1942,13 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="16"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="12" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="21"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="14" t="s">
         <v>50</v>
       </c>
       <c r="E26" s="5">
@@ -2529,13 +1958,13 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="16"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="12" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="21"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="5">
@@ -2545,898 +1974,899 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="16"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="12" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="21"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="16"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="12" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" s="21"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="11" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="16"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>59</v>
       </c>
       <c r="G30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="12" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="21"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="12" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="21"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="11" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="16"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="12" t="s">
+      <c r="A33" s="21"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="16" t="s">
         <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="16"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="12" t="s">
+    <row r="34" spans="1:7">
+      <c r="A34" s="21"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="16"/>
-      <c r="B35" s="10" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="21"/>
+      <c r="B35" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="16"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="12" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="21"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="16"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="12" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="16"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="12" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="21"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="16"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="12" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="21"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="16"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="12" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="12" t="s">
+    <row r="41" spans="1:7">
+      <c r="A41" s="21"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="16"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="12" t="s">
+    <row r="42" spans="1:7">
+      <c r="A42" s="21"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" ht="27" spans="1:4">
-      <c r="A43" s="16"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="12" t="s">
+    <row r="43" spans="1:7" ht="27">
+      <c r="A43" s="21"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" ht="27" spans="1:4">
-      <c r="A44" s="16"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="12" t="s">
+    <row r="44" spans="1:7" ht="27">
+      <c r="A44" s="21"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:4">
-      <c r="A45" s="16"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="12" t="s">
+    <row r="45" spans="1:7" ht="27">
+      <c r="A45" s="21"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="16"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="12" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="21"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="16"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="12" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" s="21"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D47" s="15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="16"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="12" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="21"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D48" s="24" t="s">
+      <c r="D48" s="17" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="12" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="15" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="16"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="12" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="15" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="16"/>
-      <c r="B51" s="10" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="12" t="s">
+      <c r="A52" s="21"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="12" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="11" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="12" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="15" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="16"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="12" t="s">
+      <c r="A55" s="21"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="22" t="s">
+      <c r="D55" s="15" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="16"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="12" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="15" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="16"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="12" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="11" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="16"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="12" t="s">
+      <c r="A58" s="21"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="15" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="12" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="15" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="16"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="12" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="22" t="s">
+      <c r="D60" s="15" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="16"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="12" t="s">
+      <c r="A61" s="21"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="15" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="16"/>
-      <c r="B62" s="10" t="s">
+      <c r="A62" s="21"/>
+      <c r="B62" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="D62" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="16"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="12" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="11" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="16"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="12" t="s">
+      <c r="A64" s="21"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="16"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="12" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="11" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="16"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="12" t="s">
+      <c r="A66" s="21"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="15" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="16"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="12" t="s">
+      <c r="A67" s="21"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="16"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="12" t="s">
+      <c r="A68" s="21"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D68" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="16"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="12" t="s">
+      <c r="A69" s="21"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="15" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="16"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="12" t="s">
+      <c r="A70" s="21"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="15" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="16"/>
-      <c r="B71" s="10" t="s">
+      <c r="A71" s="21"/>
+      <c r="B71" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="11" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="16"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="12" t="s">
+      <c r="A72" s="21"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="73" ht="27" spans="1:4">
-      <c r="A73" s="16"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="12" t="s">
+    <row r="73" spans="1:4" ht="27">
+      <c r="A73" s="21"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="16"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="12" t="s">
+      <c r="A74" s="21"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="15" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="16"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="12" t="s">
+      <c r="A75" s="21"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D75" s="15" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="16"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="12" t="s">
+      <c r="A76" s="21"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="16"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="12" t="s">
+      <c r="A77" s="21"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="16"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="12" t="s">
+      <c r="A78" s="21"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="D78" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="16"/>
-      <c r="B79" s="10" t="s">
+      <c r="A79" s="21"/>
+      <c r="B79" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="15" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="16"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="12" t="s">
+      <c r="A80" s="21"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="D80" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="16"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="12" t="s">
+      <c r="A81" s="21"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="11" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="16"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="12" t="s">
+      <c r="A82" s="21"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="11" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="D83" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="12" t="s">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="12" t="s">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="12" t="s">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C87" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="12" t="s">
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="12" t="s">
+      <c r="A89" s="19"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="11" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="12" t="s">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="12" t="s">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="12" t="s">
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="12" t="s">
+      <c r="A93" s="19"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="11" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="12" t="s">
+      <c r="A94" s="19"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="12" t="s">
+      <c r="A95" s="19"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="11" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="12" t="s">
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="12" t="s">
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="11" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="12" t="s">
+      <c r="A98" s="19"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="10" t="s">
         <v>205</v>
       </c>
       <c r="D98" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="19"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="12" t="s">
+      <c r="D99" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D99" s="13" t="s">
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="10" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="12" t="s">
+      <c r="D100" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D100" s="13" t="s">
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="19"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="12" t="s">
+      <c r="D101" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D101" s="13" t="s">
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="19"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="10"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D102" s="13" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" s="19"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="10" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="10"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="12" t="s">
+      <c r="D103" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D103" s="13" t="s">
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="10" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="10"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="12" t="s">
+      <c r="D104" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D104" s="13" t="s">
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="10" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="10"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="12" t="s">
+      <c r="D105" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D105" s="13" t="s">
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="19"/>
+      <c r="B106" s="19" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="10"/>
-      <c r="B106" s="10" t="s">
+      <c r="C106" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="19"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C106" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D106" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="10"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="12" t="s">
+      <c r="D107" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="D107" s="13" t="s">
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="12" t="s">
+      <c r="D108" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D108" s="13" t="s">
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="19"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="10"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="12" t="s">
+      <c r="D109" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D109" s="13" t="s">
+    </row>
+    <row r="110" spans="1:4" ht="27">
+      <c r="A110" s="19"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="10" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="110" ht="27" spans="1:4">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="12" t="s">
+      <c r="D110" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D110" s="13" t="s">
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="10" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="10"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="12" t="s">
+      <c r="D111" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="D111" s="13" t="s">
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="19"/>
+      <c r="B112" s="19" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="10"/>
-      <c r="B112" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" s="12" t="s">
+      <c r="C112" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D112" s="13" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="10"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="12" t="s">
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C15:C25"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A82"/>
     <mergeCell ref="A83:A86"/>
@@ -3453,152 +2883,146 @@
     <mergeCell ref="B87:B105"/>
     <mergeCell ref="B106:B111"/>
     <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C15:C25"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId3" display="http://www.zgjtb.com/node_142.htm" tooltip="http://www.zgjtb.com/node_142.htm"/>
-    <hyperlink ref="D3" r:id="rId4" display="http://www.jiaotongjie.com/hotnews/" tooltip="http://www.jiaotongjie.com/hotnews/"/>
-    <hyperlink ref="D4" r:id="rId5" display="http://www.moc.gov.cn/jiaotongyaowen/" tooltip="http://www.moc.gov.cn/jiaotongyaowen/"/>
-    <hyperlink ref="D7" r:id="rId6" display="http://auto.qq.com/l/service/trafficnews/list.htm" tooltip="http://auto.qq.com/l/service/trafficnews/list.htm"/>
-    <hyperlink ref="D9" r:id="rId7" display="http://news.c-cc.cn/new_news.asp" tooltip="http://news.c-cc.cn/new_news.asp"/>
-    <hyperlink ref="D10" r:id="rId8" display="http://www.bbaqw.com/wzs/jtaq/jtrd.htm" tooltip="http://www.bbaqw.com/wzs/jtaq/jtrd.htm"/>
-    <hyperlink ref="D11" r:id="rId9" display="http://www.chinarta.com/News/kTraffic/" tooltip="http://www.chinarta.com/News/kTraffic/"/>
-    <hyperlink ref="D13" r:id="rId10" display="http://www.cccnews.cn/zjxw/" tooltip="http://www.cccnews.cn/zjxw/"/>
-    <hyperlink ref="D12" r:id="rId11" display="http://news.china.com/baike_5Lqk6YCa.html" tooltip="http://news.china.com/baike_5Lqk6YCa.html"/>
-    <hyperlink ref="D6" r:id="rId12" display="http://www.jiemian.com/lists/30.html" tooltip="http://www.jiemian.com/lists/30.html"/>
-    <hyperlink ref="D5" r:id="rId13" display="http://money.163.com/special/002526O5/transport.html" tooltip="http://money.163.com/special/002526O5/transport.html"/>
-    <hyperlink ref="D8" r:id="rId14" display="http://auto.sohu.com/qichejiaotong/index.shtml" tooltip="http://auto.sohu.com/qichejiaotong/index.shtml"/>
-    <hyperlink ref="D14" r:id="rId15" display="http://www.chinautc.com/templates/H_news/group.aspx?nodeid=3" tooltip="http://www.chinautc.com/templates/H_news/group.aspx?nodeid=3"/>
-    <hyperlink ref="D15" r:id="rId16" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=20" tooltip="http://www.jt12345.com/portal.php?mod=list&amp;catid=20"/>
-    <hyperlink ref="D26" r:id="rId17" display="http://www.jiaotongjie.com/csjt/" tooltip="http://www.jiaotongjie.com/csjt/"/>
-    <hyperlink ref="D27" r:id="rId18" display="http://www.21its.com/News/NewsList.aspx?typeid=1" tooltip="http://www.21its.com/News/NewsList.aspx?typeid=1"/>
-    <hyperlink ref="D29" r:id="rId19" display="http://www.its114.com/html/news/" tooltip="http://www.its114.com/html/news/"/>
-    <hyperlink ref="D30" r:id="rId20" display="http://www.chinahighway.com/xw/xw_index.php" tooltip="http://www.chinahighway.com/xw/xw_index.php"/>
-    <hyperlink ref="D31" r:id="rId21" display="http://www.china-highway.com/Home/News/index/fid/80.html" tooltip="http://www.china-highway.com/Home/News/index/fid/80.html"/>
-    <hyperlink ref="D32" r:id="rId22" display="http://www.rioh.cn/Stencil/002/dtxw.asp?xcd=2" tooltip="http://www.rioh.cn/Stencil/002/dtxw.asp?xcd=2"/>
-    <hyperlink ref="D34" r:id="rId23" display="http://www.zgjtb.com/gonglu/node_210.htm" tooltip="http://www.zgjtb.com/gonglu/node_210.htm"/>
-    <hyperlink ref="D35" r:id="rId24" display="http://www.zgsyb.com/html/news/node_1580.htm" tooltip="http://www.zgsyb.com/html/news/node_1580.htm"/>
-    <hyperlink ref="D36" r:id="rId25" display="http://www.wti.ac.cn/listb.aspx?page=1&amp;menuid=1332" tooltip="http://www.wti.ac.cn/listb.aspx?page=1&amp;menuid=1332"/>
-    <hyperlink ref="D37" r:id="rId26" display="http://epaper.zgsyb.com/html/2016-05/09/node_2.htm" tooltip="http://epaper.zgsyb.com/html/2016-05/09/node_2.htm"/>
-    <hyperlink ref="D38" r:id="rId27" display="http://www.cwtca.org.cn/newsAction.do?action=news&amp;isType=2" tooltip="http://www.cwtca.org.cn/newsAction.do?action=news&amp;isType=2"/>
-    <hyperlink ref="D39" r:id="rId28" display="http://www.chinaports.com/portlspnews/1-20-hot-null/query" tooltip="http://www.chinaports.com/portlspnews/1-20-hot-null/query"/>
-    <hyperlink ref="D48" r:id="rId29" display="http://www.jiaotongjie.com/sy/hot/"/>
-    <hyperlink ref="D50" r:id="rId30" display="http://www.chinawuliu.com.cn/zixun/class_6.shtml"/>
-    <hyperlink ref="D51" r:id="rId31" display="http://www.rail-transit.com/List_News2.aspx?CateID=1" tooltip="http://www.rail-transit.com/List_News2.aspx?CateID=1"/>
-    <hyperlink ref="D52" r:id="rId32" display="http://www.rail-transit.com/List_News2.aspx?CateID=2" tooltip="http://www.rail-transit.com/List_News2.aspx?CateID=2"/>
-    <hyperlink ref="D53" r:id="rId33" display="http://www.rail-transit.com/List_News2.aspx?CateID=3"/>
-    <hyperlink ref="D54" r:id="rId34" display="http://www.ccmetro.com/search/searchnews.aspx"/>
-    <hyperlink ref="D55" r:id="rId35" display="http://www.bjsubway.com/news/qyxw/yyzd/"/>
-    <hyperlink ref="D56" r:id="rId36" display="http://rail.ally.net.cn/html/hyzix/ganxiantielu/"/>
-    <hyperlink ref="D57" r:id="rId37" display="http://rail.ally.net.cn/html/xinjialanmu/"/>
-    <hyperlink ref="D58" r:id="rId38" display="http://www.chnrailway.com/news/gn/"/>
-    <hyperlink ref="D61" r:id="rId39" display="http://txy.chnrailway.com/"/>
-    <hyperlink ref="D62" r:id="rId40" display="http://www.caac.gov.cn/XWZX/MHYW/" tooltip="http://www.caac.gov.cn/XWZX/MHYW/"/>
-    <hyperlink ref="D63" r:id="rId41" display="http://www.zgjtb.com/minhang/node_105.htm"/>
-    <hyperlink ref="D64" r:id="rId42" display="http://www.jiaotongjie.com/mh/xwjd/"/>
-    <hyperlink ref="D65" r:id="rId43" display="http://www.jiaotongjie.com/mh/jc/"/>
-    <hyperlink ref="D66" r:id="rId44" display="http://www.caacnews.com.cn/n/n11.aspx?pageid=1"/>
-    <hyperlink ref="D67" r:id="rId45" display="http://www.caacnews.com.cn/n/n14.aspx?pageid=1"/>
-    <hyperlink ref="D68" r:id="rId46" display="http://www.caacnews.com.cn/n/n15.aspx?pageid=1"/>
-    <hyperlink ref="D69" r:id="rId47" display="http://news.carnoc.com/hotnews.html" tooltip="http://news.carnoc.com/hotnews.html"/>
-    <hyperlink ref="D70" r:id="rId48" display="http://news.cnair.com/minhang/"/>
-    <hyperlink ref="D105" r:id="rId49" display="http://www.cjtkj.com/research/"/>
-    <hyperlink ref="D88" r:id="rId50" display="http://www.chnrailway.com/tdkj/kjdt/index.shtml"/>
-    <hyperlink ref="D90" r:id="rId51" display="http://www.afzhan.com/channel/t2364/tech.html"/>
-    <hyperlink ref="D111" r:id="rId52" display="http://www.chnrailway.com/tdkj/kjzt/index.shtml"/>
-    <hyperlink ref="D106" r:id="rId53" display="http://auto.163.com/special/tech/"/>
-    <hyperlink ref="D71" r:id="rId54" display="http://www.chinaports.org/list/1003_1025_0.htm"/>
-    <hyperlink ref="D73" r:id="rId55" display="http://info.shippingchina.com/bluenews/index/list/type/%E8%B4%B8%E6%98%93%E6%96%B0%E9%97%BB.html"/>
-    <hyperlink ref="D110" r:id="rId56" display="http://info.shippingchina.com/bluenews/index/blist/type/%E6%B7%B1%E5%BA%A6%E5%88%86%E6%9E%90.html"/>
-    <hyperlink ref="D109" r:id="rId57" display="http://www.chnrailway.com/comments/Commentary/"/>
-    <hyperlink ref="D113" r:id="rId58" display="http://www.cannews.com.cn/xwzx/perspective/"/>
-    <hyperlink ref="D112" r:id="rId57" display="http://www.chnrailway.com/comments/Commentary/"/>
-    <hyperlink ref="D87" r:id="rId53" display="http://auto.163.com/special/tech/"/>
-    <hyperlink ref="D108" r:id="rId58" display="http://www.cannews.com.cn/xwzx/perspective/"/>
-    <hyperlink ref="D107" r:id="rId59" display="http://metro.controleng.cn/IndustryNews.aspx"/>
-    <hyperlink ref="D33" r:id="rId60" display="http://www.chinagonglu.com/A/?L-1010803053.Html" tooltip="http://www.chinagonglu.com/A/?L-1010803053.Html"/>
-    <hyperlink ref="D40" r:id="rId61" display="http://www.chinaports.org/list/1003_1023_0.htm" tooltip="http://www.chinaports.org/list/1003_1023_0.htm"/>
-    <hyperlink ref="D41" r:id="rId62" display="http://www.chinaports.org/list/1003_1026_0.htm" tooltip="http://www.chinaports.org/list/1003_1026_0.htm"/>
-    <hyperlink ref="D42" r:id="rId63" display="http://www.chineseport.cn/list.php?fid=47" tooltip="http://www.chineseport.cn/list.php?fid=47"/>
-    <hyperlink ref="D43" r:id="rId64" display="http://info.shippingchina.com/bluenews/index/blist/type/%E4%BB%8A%E6%97%A5%E8%81%9A%E7%84%A6.html"/>
-    <hyperlink ref="D44" r:id="rId65" display="http://info.shippingchina.com/bluenews/index/list/type/%E6%B5%B7%E8%BF%90%E6%96%B0%E9%97%BB.html"/>
-    <hyperlink ref="D45" r:id="rId66" display="http://info.shippingchina.com/bluenews/index/list/type/%E6%B8%AF%E5%8F%A3%E6%96%B0%E9%97%BB.html"/>
-    <hyperlink ref="D46" r:id="rId67" display="http://www.csoa.cn/redianjj/" tooltip="http://www.csoa.cn/redianjj/"/>
-    <hyperlink ref="D47" r:id="rId68" display="http://www.cj-pilot.com.cn:9001/news-list.php?pagenumber=218-3" tooltip="http://www.cj-pilot.com.cn:9001/news-list.php?pagenumber=218-3"/>
-    <hyperlink ref="D49" r:id="rId69" display="http://www.56beijing.org/news/shuiyun/" tooltip="http://www.56beijing.org/news/shuiyun/"/>
-    <hyperlink ref="D59" r:id="rId70" display="http://www.rails.com.cn/news.php?classid=11"/>
-    <hyperlink ref="D60" r:id="rId71" display="http://www.rail-info.com/info/tlzx.jsp"/>
-    <hyperlink ref="D72" r:id="rId72" display="http://www.chineseport.cn/list.php?fid=78"/>
-    <hyperlink ref="D74" r:id="rId73" display="http://www.yunquna.com/news/newslist-2-15-1.html"/>
-    <hyperlink ref="D75" r:id="rId74" display="http://www.yunquna.com/news/newslist-4-15-1.html"/>
-    <hyperlink ref="D76" r:id="rId75" display="http://www.yunquna.com/news/newslist-3-15-1.html"/>
-    <hyperlink ref="D77" r:id="rId76" display="http://www.yunquna.com/news/newslist-1-15-1.html"/>
-    <hyperlink ref="D78" r:id="rId77" display="http://www.chinaports.org/list/1003_1028_0.htm"/>
-    <hyperlink ref="D79" r:id="rId78" display="http://www.china-its.org/cnt_list_2_1.html"/>
-    <hyperlink ref="D80" r:id="rId79" display="http://www.66its.com/news/"/>
-    <hyperlink ref="D81" r:id="rId80" display="http://www.itsc.cn/article_cat.php?id=6009"/>
-    <hyperlink ref="D82" r:id="rId81" display="http://www.its114.com/html/news/chengshizhinengjiaotong/"/>
-    <hyperlink ref="D89" r:id="rId82" display="http://www.mte.net.cn/remenAllList.aspx"/>
-    <hyperlink ref="D92" r:id="rId83" display="http://www.cnits.net.cn/html/news/jishu/"/>
-    <hyperlink ref="D93" r:id="rId84" display="http://www.ccmetro.com/technic/"/>
-    <hyperlink ref="D94" r:id="rId85" display="http://www.cannews.com.cn/xwzx/kjqy/"/>
-    <hyperlink ref="D95" r:id="rId86" display="http://rail.ally.net.cn/html/art/"/>
-    <hyperlink ref="D96" r:id="rId87" display="http://www.chinametro.net/index.php?m=news&amp;id=441" tooltip="http://www.chinametro.net/index.php?m=news&amp;id=441"/>
-    <hyperlink ref="D97" r:id="rId88" display="http://www.zgcsgd.com/list.php?fid=63"/>
-    <hyperlink ref="D100" r:id="rId89" display="http://www.firetc.com/news/list.php?catid=834"/>
-    <hyperlink ref="D101" r:id="rId90" display="http://www.wokeji.com/qyts/1_qykj/index_1.shtml"/>
-    <hyperlink ref="D102" r:id="rId91" display="http://www.wokeji.com/explore/qykj/"/>
-    <hyperlink ref="D103" r:id="rId92" display="http://www.toutiao.com/m5510943119/"/>
-    <hyperlink ref="D104" r:id="rId93" display="http://www.its114.com/html/news/guojiqianyan/"/>
-    <hyperlink ref="D28" r:id="rId94" display="http://www.cn-its.com.cn/news/" tooltip="http://www.cn-its.com.cn/news/"/>
-    <hyperlink ref="D91" r:id="rId95" display="http://www.cnits.net.cn/html/news/"/>
-    <hyperlink ref="D83" r:id="rId96" display="http://zizhan.mot.gov.cn/zfxxgk/index.html"/>
-    <hyperlink ref="D86" r:id="rId97" display="http://zizhan.mot.gov.cn/zfxxgk/index.html?gk=252/265/list_4557.htm"/>
-    <hyperlink ref="D17" r:id="rId98" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=21"/>
-    <hyperlink ref="D18" r:id="rId98" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=22"/>
-    <hyperlink ref="D19" r:id="rId98" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=23"/>
-    <hyperlink ref="D20" r:id="rId98" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=24"/>
-    <hyperlink ref="D21" r:id="rId98" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=25"/>
-    <hyperlink ref="D22" r:id="rId98" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=26"/>
-    <hyperlink ref="D23" r:id="rId98" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=27"/>
-    <hyperlink ref="D24" r:id="rId98" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=28"/>
-    <hyperlink ref="D25" r:id="rId99" display="http://www.jt12345.com/portal.php?mod=list&amp;catid=43"/>
+    <hyperlink ref="D2" r:id="rId1" tooltip="http://www.zgjtb.com/node_142.htm"/>
+    <hyperlink ref="D3" r:id="rId2" tooltip="http://www.jiaotongjie.com/hotnews/"/>
+    <hyperlink ref="D4" r:id="rId3" tooltip="http://www.moc.gov.cn/jiaotongyaowen/"/>
+    <hyperlink ref="D7" r:id="rId4" tooltip="http://auto.qq.com/l/service/trafficnews/list.htm"/>
+    <hyperlink ref="D9" r:id="rId5" tooltip="http://news.c-cc.cn/new_news.asp"/>
+    <hyperlink ref="D10" r:id="rId6" tooltip="http://www.bbaqw.com/wzs/jtaq/jtrd.htm"/>
+    <hyperlink ref="D11" r:id="rId7" tooltip="http://www.chinarta.com/News/kTraffic/"/>
+    <hyperlink ref="D13" r:id="rId8" tooltip="http://www.cccnews.cn/zjxw/"/>
+    <hyperlink ref="D12" r:id="rId9" tooltip="http://news.china.com/baike_5Lqk6YCa.html"/>
+    <hyperlink ref="D6" r:id="rId10" tooltip="http://www.jiemian.com/lists/30.html"/>
+    <hyperlink ref="D5" r:id="rId11" tooltip="http://money.163.com/special/002526O5/transport.html"/>
+    <hyperlink ref="D8" r:id="rId12" tooltip="http://auto.sohu.com/qichejiaotong/index.shtml"/>
+    <hyperlink ref="D14" r:id="rId13" tooltip="http://www.chinautc.com/templates/H_news/group.aspx?nodeid=3"/>
+    <hyperlink ref="D15" r:id="rId14" tooltip="http://www.jt12345.com/portal.php?mod=list&amp;catid=20"/>
+    <hyperlink ref="D26" r:id="rId15" tooltip="http://www.jiaotongjie.com/csjt/"/>
+    <hyperlink ref="D27" r:id="rId16" tooltip="http://www.21its.com/News/NewsList.aspx?typeid=1"/>
+    <hyperlink ref="D29" r:id="rId17" tooltip="http://www.its114.com/html/news/"/>
+    <hyperlink ref="D30" r:id="rId18" tooltip="http://www.chinahighway.com/xw/xw_index.php"/>
+    <hyperlink ref="D31" r:id="rId19" tooltip="http://www.china-highway.com/Home/News/index/fid/80.html"/>
+    <hyperlink ref="D32" r:id="rId20" tooltip="http://www.rioh.cn/Stencil/002/dtxw.asp?xcd=2"/>
+    <hyperlink ref="D34" r:id="rId21" tooltip="http://www.zgjtb.com/gonglu/node_210.htm"/>
+    <hyperlink ref="D35" r:id="rId22" tooltip="http://www.zgsyb.com/html/news/node_1580.htm"/>
+    <hyperlink ref="D36" r:id="rId23" tooltip="http://www.wti.ac.cn/listb.aspx?page=1&amp;menuid=1332"/>
+    <hyperlink ref="D37" r:id="rId24" tooltip="http://epaper.zgsyb.com/html/2016-05/09/node_2.htm"/>
+    <hyperlink ref="D38" r:id="rId25" tooltip="http://www.cwtca.org.cn/newsAction.do?action=news&amp;isType=2"/>
+    <hyperlink ref="D39" r:id="rId26" tooltip="http://www.chinaports.com/portlspnews/1-20-hot-null/query"/>
+    <hyperlink ref="D48" r:id="rId27"/>
+    <hyperlink ref="D50" r:id="rId28"/>
+    <hyperlink ref="D51" r:id="rId29" tooltip="http://www.rail-transit.com/List_News2.aspx?CateID=1"/>
+    <hyperlink ref="D52" r:id="rId30" tooltip="http://www.rail-transit.com/List_News2.aspx?CateID=2"/>
+    <hyperlink ref="D53" r:id="rId31"/>
+    <hyperlink ref="D54" r:id="rId32"/>
+    <hyperlink ref="D55" r:id="rId33"/>
+    <hyperlink ref="D56" r:id="rId34"/>
+    <hyperlink ref="D57" r:id="rId35"/>
+    <hyperlink ref="D58" r:id="rId36"/>
+    <hyperlink ref="D61" r:id="rId37"/>
+    <hyperlink ref="D62" r:id="rId38" tooltip="http://www.caac.gov.cn/XWZX/MHYW/"/>
+    <hyperlink ref="D63" r:id="rId39"/>
+    <hyperlink ref="D64" r:id="rId40"/>
+    <hyperlink ref="D65" r:id="rId41"/>
+    <hyperlink ref="D66" r:id="rId42"/>
+    <hyperlink ref="D67" r:id="rId43"/>
+    <hyperlink ref="D68" r:id="rId44"/>
+    <hyperlink ref="D69" r:id="rId45" tooltip="http://news.carnoc.com/hotnews.html"/>
+    <hyperlink ref="D70" r:id="rId46"/>
+    <hyperlink ref="D105" r:id="rId47"/>
+    <hyperlink ref="D88" r:id="rId48"/>
+    <hyperlink ref="D90" r:id="rId49"/>
+    <hyperlink ref="D111" r:id="rId50"/>
+    <hyperlink ref="D106" r:id="rId51"/>
+    <hyperlink ref="D71" r:id="rId52"/>
+    <hyperlink ref="D73" r:id="rId53"/>
+    <hyperlink ref="D110" r:id="rId54"/>
+    <hyperlink ref="D109" r:id="rId55"/>
+    <hyperlink ref="D113" r:id="rId56"/>
+    <hyperlink ref="D112" r:id="rId57"/>
+    <hyperlink ref="D87" r:id="rId58"/>
+    <hyperlink ref="D108" r:id="rId59"/>
+    <hyperlink ref="D107" r:id="rId60"/>
+    <hyperlink ref="D33" r:id="rId61" tooltip="http://www.chinagonglu.com/A/?L-1010803053.Html"/>
+    <hyperlink ref="D40" r:id="rId62" tooltip="http://www.chinaports.org/list/1003_1023_0.htm"/>
+    <hyperlink ref="D41" r:id="rId63" tooltip="http://www.chinaports.org/list/1003_1026_0.htm"/>
+    <hyperlink ref="D42" r:id="rId64" tooltip="http://www.chineseport.cn/list.php?fid=47"/>
+    <hyperlink ref="D43" r:id="rId65"/>
+    <hyperlink ref="D44" r:id="rId66"/>
+    <hyperlink ref="D45" r:id="rId67"/>
+    <hyperlink ref="D46" r:id="rId68" tooltip="http://www.csoa.cn/redianjj/"/>
+    <hyperlink ref="D47" r:id="rId69" tooltip="http://www.cj-pilot.com.cn:9001/news-list.php?pagenumber=218-3"/>
+    <hyperlink ref="D49" r:id="rId70" tooltip="http://www.56beijing.org/news/shuiyun/"/>
+    <hyperlink ref="D59" r:id="rId71"/>
+    <hyperlink ref="D60" r:id="rId72"/>
+    <hyperlink ref="D72" r:id="rId73"/>
+    <hyperlink ref="D74" r:id="rId74"/>
+    <hyperlink ref="D75" r:id="rId75"/>
+    <hyperlink ref="D76" r:id="rId76"/>
+    <hyperlink ref="D77" r:id="rId77"/>
+    <hyperlink ref="D78" r:id="rId78"/>
+    <hyperlink ref="D79" r:id="rId79"/>
+    <hyperlink ref="D80" r:id="rId80"/>
+    <hyperlink ref="D81" r:id="rId81"/>
+    <hyperlink ref="D82" r:id="rId82"/>
+    <hyperlink ref="D89" r:id="rId83"/>
+    <hyperlink ref="D92" r:id="rId84"/>
+    <hyperlink ref="D93" r:id="rId85"/>
+    <hyperlink ref="D94" r:id="rId86"/>
+    <hyperlink ref="D95" r:id="rId87"/>
+    <hyperlink ref="D96" r:id="rId88" tooltip="http://www.chinametro.net/index.php?m=news&amp;id=441"/>
+    <hyperlink ref="D97" r:id="rId89"/>
+    <hyperlink ref="D100" r:id="rId90"/>
+    <hyperlink ref="D101" r:id="rId91"/>
+    <hyperlink ref="D102" r:id="rId92"/>
+    <hyperlink ref="D103" r:id="rId93"/>
+    <hyperlink ref="D104" r:id="rId94"/>
+    <hyperlink ref="D28" r:id="rId95" tooltip="http://www.cn-its.com.cn/news/"/>
+    <hyperlink ref="D91" r:id="rId96"/>
+    <hyperlink ref="D83" r:id="rId97"/>
+    <hyperlink ref="D86" r:id="rId98"/>
+    <hyperlink ref="D17" r:id="rId99"/>
+    <hyperlink ref="D18" r:id="rId100"/>
+    <hyperlink ref="D19" r:id="rId101"/>
+    <hyperlink ref="D20" r:id="rId102"/>
+    <hyperlink ref="D21" r:id="rId103"/>
+    <hyperlink ref="D22" r:id="rId104"/>
+    <hyperlink ref="D23" r:id="rId105"/>
+    <hyperlink ref="D24" r:id="rId106"/>
+    <hyperlink ref="D25" r:id="rId107"/>
+    <hyperlink ref="D98" r:id="rId108"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId109"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/中交智库-新闻频道-内容渠道（20160811）（新）.xlsx
+++ b/src/main/resources/中交智库-新闻频道-内容渠道（20160811）（新）.xlsx
@@ -603,385 +603,386 @@
     <t>中国轨道交通网-城轨资讯</t>
   </si>
   <si>
+    <t>中国轨道交通网-铁路资讯</t>
+  </si>
+  <si>
+    <t>http://www.rail-transit.com/List_News2.aspx?CateID=2</t>
+  </si>
+  <si>
+    <t>中国轨道交通网-国外资讯</t>
+  </si>
+  <si>
+    <t>http://www.rail-transit.com/List_News2.aspx?CateID=3</t>
+  </si>
+  <si>
+    <t>中国城市轨道交通网-资讯</t>
+  </si>
+  <si>
+    <t>http://www.ccmetro.com/search/searchnews.aspx</t>
+  </si>
+  <si>
+    <t>北京地铁-地铁新闻</t>
+  </si>
+  <si>
+    <t>http://www.bjsubway.com/news/qyxw/yyzd/</t>
+  </si>
+  <si>
+    <t>世界轨道交通资讯网-干线铁路</t>
+  </si>
+  <si>
+    <t>http://rail.ally.net.cn/html/hyzix/ganxiantielu/</t>
+  </si>
+  <si>
+    <t>世界轨道交通资讯网-城轨铁路</t>
+  </si>
+  <si>
+    <t>http://rail.ally.net.cn/html/xinjialanmu/</t>
+  </si>
+  <si>
+    <t>中华铁道网-国内铁路</t>
+  </si>
+  <si>
+    <t>http://www.chnrailway.com/news/gn/</t>
+  </si>
+  <si>
+    <t>中国铁道科学研究院-行业资讯</t>
+  </si>
+  <si>
+    <t>http://www.rails.com.cn/news.php?classid=11</t>
+  </si>
+  <si>
+    <t>中国铁路经济与科技信息网</t>
+  </si>
+  <si>
+    <t>http://www.rail-info.com/info/tlzx.jsp</t>
+  </si>
+  <si>
+    <t>中华铁道网-特约通讯员</t>
+  </si>
+  <si>
+    <t>http://txy.chnrailway.com/</t>
+  </si>
+  <si>
+    <t>航空5</t>
+  </si>
+  <si>
+    <t>中国民用航空局-民航要闻</t>
+  </si>
+  <si>
+    <t>http://www.caac.gov.cn/XWZX/MHYW/</t>
+  </si>
+  <si>
+    <t>中国交通新闻网-民航</t>
+  </si>
+  <si>
+    <t>http://www.zgjtb.com/minhang/node_105.htm</t>
+  </si>
+  <si>
+    <t>交通界-民航焦点</t>
+  </si>
+  <si>
+    <t>http://www.jiaotongjie.com/mh/xwjd/</t>
+  </si>
+  <si>
+    <t>交通界-机场</t>
+  </si>
+  <si>
+    <t>http://www.jiaotongjie.com/mh/jc/</t>
+  </si>
+  <si>
+    <t>中国民航网-今日头条</t>
+  </si>
+  <si>
+    <t>http://www.caacnews.com.cn/n/n11.aspx?pageid=1</t>
+  </si>
+  <si>
+    <t>中国民航网-国内要闻</t>
+  </si>
+  <si>
+    <t>http://www.caacnews.com.cn/n/n14.aspx?pageid=1</t>
+  </si>
+  <si>
+    <t>中国民航网-国际要闻</t>
+  </si>
+  <si>
+    <t>http://www.caacnews.com.cn/n/n15.aspx?pageid=1</t>
+  </si>
+  <si>
+    <t>民航资源网-近期热点</t>
+  </si>
+  <si>
+    <t>http://news.carnoc.com/hotnews.html</t>
+  </si>
+  <si>
+    <t>中国民航旅游网-民航新闻</t>
+  </si>
+  <si>
+    <t>http://news.cnair.com/minhang/</t>
+  </si>
+  <si>
+    <t>物流6</t>
+  </si>
+  <si>
+    <t>中国港口-行业资讯-多式联运</t>
+  </si>
+  <si>
+    <t>http://www.chinaports.org/list/1003_1025_0.htm</t>
+  </si>
+  <si>
+    <t>中港网-港行新闻-货运物流</t>
+  </si>
+  <si>
+    <t>http://www.chineseport.cn/list.php?fid=78</t>
+  </si>
+  <si>
+    <t>中国国际海运网-物流资讯</t>
+  </si>
+  <si>
+    <t>http://info.shippingchina.com/bluenews/index/list/type/%E8%B4%B8%E6%98%93%E6%96%B0%E9%97%BB.html</t>
+  </si>
+  <si>
+    <t>运去哪-海运资讯</t>
+  </si>
+  <si>
+    <t>http://www.yunquna.com/news/newslist-2-15-1.html</t>
+  </si>
+  <si>
+    <t>运去哪-供应链</t>
+  </si>
+  <si>
+    <t>http://www.yunquna.com/news/newslist-4-15-1.html</t>
+  </si>
+  <si>
+    <t>运去哪-空运资讯</t>
+  </si>
+  <si>
+    <t>http://www.yunquna.com/news/newslist-3-15-1.html</t>
+  </si>
+  <si>
+    <t>运去哪-资讯推荐</t>
+  </si>
+  <si>
+    <t>http://www.yunquna.com/news/newslist-1-15-1.html</t>
+  </si>
+  <si>
+    <t>中国港口-行业资讯-综合物流</t>
+  </si>
+  <si>
+    <t>http://www.chinaports.org/list/1003_1028_0.htm</t>
+  </si>
+  <si>
+    <t>综合7</t>
+  </si>
+  <si>
+    <t>中国国际智能交通展会-行业新闻</t>
+  </si>
+  <si>
+    <t>http://www.china-its.org/cnt_list_2_1.html</t>
+  </si>
+  <si>
+    <t>鼎鹏交通-交通资讯</t>
+  </si>
+  <si>
+    <t>http://www.66its.com/news/</t>
+  </si>
+  <si>
+    <t>国家智能交通系统工程技术研究中心-行业动态</t>
+  </si>
+  <si>
+    <t>http://www.itsc.cn/article_cat.php?id=6009</t>
+  </si>
+  <si>
+    <t>智能交通世界网-城市智能交通</t>
+  </si>
+  <si>
+    <t>http://www.its114.com/html/news/chengshizhinengjiaotong/</t>
+  </si>
+  <si>
+    <t>深度</t>
+  </si>
+  <si>
+    <t>政策8</t>
+  </si>
+  <si>
+    <t>交通运输部-通知公告</t>
+  </si>
+  <si>
+    <t>http://zizhan.mot.gov.cn/zfxxgk/index.html</t>
+  </si>
+  <si>
+    <t>交通运输部令</t>
+  </si>
+  <si>
+    <t>http://zizhan.mot.gov.cn/zfxxgk/index.html?gk=252/259/262/list_4557.htm</t>
+  </si>
+  <si>
+    <t>交通运输部-政策解读</t>
+  </si>
+  <si>
+    <t>http://www.mot.gov.cn/zhengcejiedu/</t>
+  </si>
+  <si>
+    <t>交通运输部-发展规划</t>
+  </si>
+  <si>
+    <t>http://zizhan.mot.gov.cn/zfxxgk/index.html?gk=252/265/list_4557.htm</t>
+  </si>
+  <si>
+    <t>前沿</t>
+  </si>
+  <si>
+    <t>新知9</t>
+  </si>
+  <si>
+    <t>网易汽车科技</t>
+  </si>
+  <si>
+    <t>http://auto.163.com/special/tech/</t>
+  </si>
+  <si>
+    <t>中华铁道网-科技动态</t>
+  </si>
+  <si>
+    <t>http://www.chnrailway.com/tdkj/kjdt/index.shtml</t>
+  </si>
+  <si>
+    <t>航空制造网</t>
+  </si>
+  <si>
+    <t>http://www.mte.net.cn/remenAllList.aspx</t>
+  </si>
+  <si>
+    <t>智能交通网-技术中心</t>
+  </si>
+  <si>
+    <t>http://www.afzhan.com/channel/t2364/tech.html</t>
+  </si>
+  <si>
+    <t>中国智能交通网-资讯</t>
+  </si>
+  <si>
+    <t>http://www.cnits.net.cn/html/news/</t>
+  </si>
+  <si>
+    <t>中国智能交通网-前沿技术</t>
+  </si>
+  <si>
+    <t>http://www.cnits.net.cn/html/news/jishu/</t>
+  </si>
+  <si>
+    <t>中国城市轨道交通网-前沿技术</t>
+  </si>
+  <si>
+    <t>http://www.ccmetro.com/technic/</t>
+  </si>
+  <si>
+    <t>中国航空新闻网-科技前沿</t>
+  </si>
+  <si>
+    <t>http://www.cannews.com.cn/xwzx/kjqy/</t>
+  </si>
+  <si>
+    <t>世界轨道交通资讯网-技术</t>
+  </si>
+  <si>
+    <t>http://rail.ally.net.cn/html/art/</t>
+  </si>
+  <si>
+    <t>中国轨道交通网-行业资讯</t>
+  </si>
+  <si>
+    <t>http://www.chinametro.net/index.php?m=news&amp;id=441</t>
+  </si>
+  <si>
+    <t>中国城市轨道交通研究会-前沿技术</t>
+  </si>
+  <si>
+    <t>http://www.zgcsgd.com/list.php?fid=63</t>
+  </si>
+  <si>
+    <t>防火资源网-船舶设备</t>
+  </si>
+  <si>
+    <t>防火资源网-飞机材料</t>
+  </si>
+  <si>
+    <t>http://www.firetc.com/news/list.php?catid=837</t>
+  </si>
+  <si>
+    <t>防火资源网-轨道车辆</t>
+  </si>
+  <si>
+    <t>http://www.firetc.com/news/list.php?catid=834</t>
+  </si>
+  <si>
+    <t>中国科技网-前沿科技</t>
+  </si>
+  <si>
+    <t>http://www.wokeji.com/qyts/1_qykj/index_1.shtml</t>
+  </si>
+  <si>
+    <t>http://www.wokeji.com/explore/qykj/</t>
+  </si>
+  <si>
+    <t>今日头条-中国铁路</t>
+  </si>
+  <si>
+    <t>http://www.toutiao.com/m5510943119/</t>
+  </si>
+  <si>
+    <t>智能交通世界网-国际前沿</t>
+  </si>
+  <si>
+    <t>http://www.its114.com/html/news/guojiqianyan/</t>
+  </si>
+  <si>
+    <t>交通科技网-科技新闻</t>
+  </si>
+  <si>
+    <t>http://www.cjtkj.com/research/</t>
+  </si>
+  <si>
+    <t>管窥10</t>
+  </si>
+  <si>
+    <t>轨道交通自动化社区</t>
+  </si>
+  <si>
+    <t>http://metro.controleng.cn/IndustryNews.aspx</t>
+  </si>
+  <si>
+    <t>中国航空新闻网-观点频道</t>
+  </si>
+  <si>
+    <t>http://www.cannews.com.cn/xwzx/perspective/</t>
+  </si>
+  <si>
+    <t>中华铁道网-铁路评论</t>
+  </si>
+  <si>
+    <t>http://www.chnrailway.com/comments/Commentary/</t>
+  </si>
+  <si>
+    <t>中国国际海运网深度分析</t>
+  </si>
+  <si>
+    <t>http://info.shippingchina.com/bluenews/index/blist/type/%E6%B7%B1%E5%BA%A6%E5%88%86%E6%9E%90.html</t>
+  </si>
+  <si>
+    <t>中华铁道网-科技专题</t>
+  </si>
+  <si>
+    <t>http://www.chnrailway.com/tdkj/kjzt/index.shtml</t>
+  </si>
+  <si>
+    <t>睿见11</t>
+  </si>
+  <si>
+    <t>http://www.firetc.com/news/list.php?catid=836</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.rail-transit.com/List_News2.aspx?CateID=1</t>
-  </si>
-  <si>
-    <t>中国轨道交通网-铁路资讯</t>
-  </si>
-  <si>
-    <t>http://www.rail-transit.com/List_News2.aspx?CateID=2</t>
-  </si>
-  <si>
-    <t>中国轨道交通网-国外资讯</t>
-  </si>
-  <si>
-    <t>http://www.rail-transit.com/List_News2.aspx?CateID=3</t>
-  </si>
-  <si>
-    <t>中国城市轨道交通网-资讯</t>
-  </si>
-  <si>
-    <t>http://www.ccmetro.com/search/searchnews.aspx</t>
-  </si>
-  <si>
-    <t>北京地铁-地铁新闻</t>
-  </si>
-  <si>
-    <t>http://www.bjsubway.com/news/qyxw/yyzd/</t>
-  </si>
-  <si>
-    <t>世界轨道交通资讯网-干线铁路</t>
-  </si>
-  <si>
-    <t>http://rail.ally.net.cn/html/hyzix/ganxiantielu/</t>
-  </si>
-  <si>
-    <t>世界轨道交通资讯网-城轨铁路</t>
-  </si>
-  <si>
-    <t>http://rail.ally.net.cn/html/xinjialanmu/</t>
-  </si>
-  <si>
-    <t>中华铁道网-国内铁路</t>
-  </si>
-  <si>
-    <t>http://www.chnrailway.com/news/gn/</t>
-  </si>
-  <si>
-    <t>中国铁道科学研究院-行业资讯</t>
-  </si>
-  <si>
-    <t>http://www.rails.com.cn/news.php?classid=11</t>
-  </si>
-  <si>
-    <t>中国铁路经济与科技信息网</t>
-  </si>
-  <si>
-    <t>http://www.rail-info.com/info/tlzx.jsp</t>
-  </si>
-  <si>
-    <t>中华铁道网-特约通讯员</t>
-  </si>
-  <si>
-    <t>http://txy.chnrailway.com/</t>
-  </si>
-  <si>
-    <t>航空5</t>
-  </si>
-  <si>
-    <t>中国民用航空局-民航要闻</t>
-  </si>
-  <si>
-    <t>http://www.caac.gov.cn/XWZX/MHYW/</t>
-  </si>
-  <si>
-    <t>中国交通新闻网-民航</t>
-  </si>
-  <si>
-    <t>http://www.zgjtb.com/minhang/node_105.htm</t>
-  </si>
-  <si>
-    <t>交通界-民航焦点</t>
-  </si>
-  <si>
-    <t>http://www.jiaotongjie.com/mh/xwjd/</t>
-  </si>
-  <si>
-    <t>交通界-机场</t>
-  </si>
-  <si>
-    <t>http://www.jiaotongjie.com/mh/jc/</t>
-  </si>
-  <si>
-    <t>中国民航网-今日头条</t>
-  </si>
-  <si>
-    <t>http://www.caacnews.com.cn/n/n11.aspx?pageid=1</t>
-  </si>
-  <si>
-    <t>中国民航网-国内要闻</t>
-  </si>
-  <si>
-    <t>http://www.caacnews.com.cn/n/n14.aspx?pageid=1</t>
-  </si>
-  <si>
-    <t>中国民航网-国际要闻</t>
-  </si>
-  <si>
-    <t>http://www.caacnews.com.cn/n/n15.aspx?pageid=1</t>
-  </si>
-  <si>
-    <t>民航资源网-近期热点</t>
-  </si>
-  <si>
-    <t>http://news.carnoc.com/hotnews.html</t>
-  </si>
-  <si>
-    <t>中国民航旅游网-民航新闻</t>
-  </si>
-  <si>
-    <t>http://news.cnair.com/minhang/</t>
-  </si>
-  <si>
-    <t>物流6</t>
-  </si>
-  <si>
-    <t>中国港口-行业资讯-多式联运</t>
-  </si>
-  <si>
-    <t>http://www.chinaports.org/list/1003_1025_0.htm</t>
-  </si>
-  <si>
-    <t>中港网-港行新闻-货运物流</t>
-  </si>
-  <si>
-    <t>http://www.chineseport.cn/list.php?fid=78</t>
-  </si>
-  <si>
-    <t>中国国际海运网-物流资讯</t>
-  </si>
-  <si>
-    <t>http://info.shippingchina.com/bluenews/index/list/type/%E8%B4%B8%E6%98%93%E6%96%B0%E9%97%BB.html</t>
-  </si>
-  <si>
-    <t>运去哪-海运资讯</t>
-  </si>
-  <si>
-    <t>http://www.yunquna.com/news/newslist-2-15-1.html</t>
-  </si>
-  <si>
-    <t>运去哪-供应链</t>
-  </si>
-  <si>
-    <t>http://www.yunquna.com/news/newslist-4-15-1.html</t>
-  </si>
-  <si>
-    <t>运去哪-空运资讯</t>
-  </si>
-  <si>
-    <t>http://www.yunquna.com/news/newslist-3-15-1.html</t>
-  </si>
-  <si>
-    <t>运去哪-资讯推荐</t>
-  </si>
-  <si>
-    <t>http://www.yunquna.com/news/newslist-1-15-1.html</t>
-  </si>
-  <si>
-    <t>中国港口-行业资讯-综合物流</t>
-  </si>
-  <si>
-    <t>http://www.chinaports.org/list/1003_1028_0.htm</t>
-  </si>
-  <si>
-    <t>综合7</t>
-  </si>
-  <si>
-    <t>中国国际智能交通展会-行业新闻</t>
-  </si>
-  <si>
-    <t>http://www.china-its.org/cnt_list_2_1.html</t>
-  </si>
-  <si>
-    <t>鼎鹏交通-交通资讯</t>
-  </si>
-  <si>
-    <t>http://www.66its.com/news/</t>
-  </si>
-  <si>
-    <t>国家智能交通系统工程技术研究中心-行业动态</t>
-  </si>
-  <si>
-    <t>http://www.itsc.cn/article_cat.php?id=6009</t>
-  </si>
-  <si>
-    <t>智能交通世界网-城市智能交通</t>
-  </si>
-  <si>
-    <t>http://www.its114.com/html/news/chengshizhinengjiaotong/</t>
-  </si>
-  <si>
-    <t>深度</t>
-  </si>
-  <si>
-    <t>政策8</t>
-  </si>
-  <si>
-    <t>交通运输部-通知公告</t>
-  </si>
-  <si>
-    <t>http://zizhan.mot.gov.cn/zfxxgk/index.html</t>
-  </si>
-  <si>
-    <t>交通运输部令</t>
-  </si>
-  <si>
-    <t>http://zizhan.mot.gov.cn/zfxxgk/index.html?gk=252/259/262/list_4557.htm</t>
-  </si>
-  <si>
-    <t>交通运输部-政策解读</t>
-  </si>
-  <si>
-    <t>http://www.mot.gov.cn/zhengcejiedu/</t>
-  </si>
-  <si>
-    <t>交通运输部-发展规划</t>
-  </si>
-  <si>
-    <t>http://zizhan.mot.gov.cn/zfxxgk/index.html?gk=252/265/list_4557.htm</t>
-  </si>
-  <si>
-    <t>前沿</t>
-  </si>
-  <si>
-    <t>新知9</t>
-  </si>
-  <si>
-    <t>网易汽车科技</t>
-  </si>
-  <si>
-    <t>http://auto.163.com/special/tech/</t>
-  </si>
-  <si>
-    <t>中华铁道网-科技动态</t>
-  </si>
-  <si>
-    <t>http://www.chnrailway.com/tdkj/kjdt/index.shtml</t>
-  </si>
-  <si>
-    <t>航空制造网</t>
-  </si>
-  <si>
-    <t>http://www.mte.net.cn/remenAllList.aspx</t>
-  </si>
-  <si>
-    <t>智能交通网-技术中心</t>
-  </si>
-  <si>
-    <t>http://www.afzhan.com/channel/t2364/tech.html</t>
-  </si>
-  <si>
-    <t>中国智能交通网-资讯</t>
-  </si>
-  <si>
-    <t>http://www.cnits.net.cn/html/news/</t>
-  </si>
-  <si>
-    <t>中国智能交通网-前沿技术</t>
-  </si>
-  <si>
-    <t>http://www.cnits.net.cn/html/news/jishu/</t>
-  </si>
-  <si>
-    <t>中国城市轨道交通网-前沿技术</t>
-  </si>
-  <si>
-    <t>http://www.ccmetro.com/technic/</t>
-  </si>
-  <si>
-    <t>中国航空新闻网-科技前沿</t>
-  </si>
-  <si>
-    <t>http://www.cannews.com.cn/xwzx/kjqy/</t>
-  </si>
-  <si>
-    <t>世界轨道交通资讯网-技术</t>
-  </si>
-  <si>
-    <t>http://rail.ally.net.cn/html/art/</t>
-  </si>
-  <si>
-    <t>中国轨道交通网-行业资讯</t>
-  </si>
-  <si>
-    <t>http://www.chinametro.net/index.php?m=news&amp;id=441</t>
-  </si>
-  <si>
-    <t>中国城市轨道交通研究会-前沿技术</t>
-  </si>
-  <si>
-    <t>http://www.zgcsgd.com/list.php?fid=63</t>
-  </si>
-  <si>
-    <t>防火资源网-船舶设备</t>
-  </si>
-  <si>
-    <t>防火资源网-飞机材料</t>
-  </si>
-  <si>
-    <t>http://www.firetc.com/news/list.php?catid=837</t>
-  </si>
-  <si>
-    <t>防火资源网-轨道车辆</t>
-  </si>
-  <si>
-    <t>http://www.firetc.com/news/list.php?catid=834</t>
-  </si>
-  <si>
-    <t>中国科技网-前沿科技</t>
-  </si>
-  <si>
-    <t>http://www.wokeji.com/qyts/1_qykj/index_1.shtml</t>
-  </si>
-  <si>
-    <t>http://www.wokeji.com/explore/qykj/</t>
-  </si>
-  <si>
-    <t>今日头条-中国铁路</t>
-  </si>
-  <si>
-    <t>http://www.toutiao.com/m5510943119/</t>
-  </si>
-  <si>
-    <t>智能交通世界网-国际前沿</t>
-  </si>
-  <si>
-    <t>http://www.its114.com/html/news/guojiqianyan/</t>
-  </si>
-  <si>
-    <t>交通科技网-科技新闻</t>
-  </si>
-  <si>
-    <t>http://www.cjtkj.com/research/</t>
-  </si>
-  <si>
-    <t>管窥10</t>
-  </si>
-  <si>
-    <t>轨道交通自动化社区</t>
-  </si>
-  <si>
-    <t>http://metro.controleng.cn/IndustryNews.aspx</t>
-  </si>
-  <si>
-    <t>中国航空新闻网-观点频道</t>
-  </si>
-  <si>
-    <t>http://www.cannews.com.cn/xwzx/perspective/</t>
-  </si>
-  <si>
-    <t>中华铁道网-铁路评论</t>
-  </si>
-  <si>
-    <t>http://www.chnrailway.com/comments/Commentary/</t>
-  </si>
-  <si>
-    <t>中国国际海运网深度分析</t>
-  </si>
-  <si>
-    <t>http://info.shippingchina.com/bluenews/index/blist/type/%E6%B7%B1%E5%BA%A6%E5%88%86%E6%9E%90.html</t>
-  </si>
-  <si>
-    <t>中华铁道网-科技专题</t>
-  </si>
-  <si>
-    <t>http://www.chnrailway.com/tdkj/kjzt/index.shtml</t>
-  </si>
-  <si>
-    <t>睿见11</t>
-  </si>
-  <si>
-    <t>http://www.firetc.com/news/list.php?catid=836</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1082,7 +1083,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1104,6 +1105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1222,15 +1229,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,6 +1236,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1583,7 +1593,7 @@
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -1601,7 +1611,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="19"/>
-      <c r="B3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
@@ -1617,7 +1627,7 @@
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1">
       <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1643,7 @@
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1">
       <c r="A5" s="19"/>
-      <c r="B5" s="22"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
@@ -1647,7 +1657,7 @@
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1">
       <c r="A6" s="19"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +1671,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="19"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1677,7 +1687,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="19"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="10" t="s">
         <v>20</v>
       </c>
@@ -1693,7 +1703,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1709,7 +1719,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1735,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="19"/>
-      <c r="B11" s="22"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
@@ -1741,7 +1751,7 @@
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="10" t="s">
         <v>28</v>
       </c>
@@ -1755,7 +1765,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="19"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="10" t="s">
         <v>30</v>
       </c>
@@ -1764,10 +1774,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="25" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1784,9 +1794,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1">
-      <c r="A15" s="21"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="20" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1803,9 +1813,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1">
-      <c r="A16" s="21"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="11" t="s">
         <v>39</v>
       </c>
@@ -1817,9 +1827,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="13" t="s">
         <v>40</v>
       </c>
@@ -1831,9 +1841,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="24"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="13" t="s">
         <v>41</v>
       </c>
@@ -1845,9 +1855,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1">
-      <c r="A19" s="21"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="24"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="13" t="s">
         <v>42</v>
       </c>
@@ -1859,9 +1869,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1">
-      <c r="A20" s="21"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="24"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="13" t="s">
         <v>43</v>
       </c>
@@ -1873,9 +1883,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="24"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="13" t="s">
         <v>44</v>
       </c>
@@ -1887,9 +1897,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="24"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="13" t="s">
         <v>45</v>
       </c>
@@ -1901,9 +1911,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="24"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="13" t="s">
         <v>46</v>
       </c>
@@ -1915,9 +1925,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="13" t="s">
         <v>47</v>
       </c>
@@ -1929,9 +1939,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="13" t="s">
         <v>48</v>
       </c>
@@ -1943,8 +1953,8 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="10" t="s">
         <v>49</v>
       </c>
@@ -1959,8 +1969,8 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="10" t="s">
         <v>51</v>
       </c>
@@ -1975,8 +1985,8 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="10" t="s">
         <v>53</v>
       </c>
@@ -1985,8 +1995,8 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="10" t="s">
         <v>55</v>
       </c>
@@ -1995,7 +2005,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="19" t="s">
         <v>57</v>
       </c>
@@ -2010,7 +2020,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="19"/>
       <c r="C31" s="10" t="s">
         <v>61</v>
@@ -2020,7 +2030,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="21"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="19"/>
       <c r="C32" s="10" t="s">
         <v>63</v>
@@ -2030,7 +2040,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="21"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="19"/>
       <c r="C33" s="10" t="s">
         <v>65</v>
@@ -2043,7 +2053,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="19"/>
       <c r="C34" s="10" t="s">
         <v>68</v>
@@ -2053,8 +2063,8 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="21"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="24"/>
+      <c r="B35" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -2065,8 +2075,8 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="21"/>
-      <c r="B36" s="19"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="10" t="s">
         <v>73</v>
       </c>
@@ -2075,8 +2085,8 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="21"/>
-      <c r="B37" s="19"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="10" t="s">
         <v>75</v>
       </c>
@@ -2085,8 +2095,8 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="21"/>
-      <c r="B38" s="19"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="10" t="s">
         <v>77</v>
       </c>
@@ -2095,8 +2105,8 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="10" t="s">
         <v>79</v>
       </c>
@@ -2105,8 +2115,8 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="21"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="10" t="s">
         <v>81</v>
       </c>
@@ -2115,8 +2125,8 @@
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="21"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="10" t="s">
         <v>83</v>
       </c>
@@ -2125,8 +2135,8 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="21"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="10" t="s">
         <v>85</v>
       </c>
@@ -2135,8 +2145,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="27">
-      <c r="A43" s="21"/>
-      <c r="B43" s="19"/>
+      <c r="A43" s="24"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="10" t="s">
         <v>87</v>
       </c>
@@ -2145,8 +2155,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="27">
-      <c r="A44" s="21"/>
-      <c r="B44" s="19"/>
+      <c r="A44" s="24"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="10" t="s">
         <v>89</v>
       </c>
@@ -2155,8 +2165,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="27">
-      <c r="A45" s="21"/>
-      <c r="B45" s="19"/>
+      <c r="A45" s="24"/>
+      <c r="B45" s="26"/>
       <c r="C45" s="10" t="s">
         <v>91</v>
       </c>
@@ -2165,8 +2175,8 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="21"/>
-      <c r="B46" s="19"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="10" t="s">
         <v>93</v>
       </c>
@@ -2175,8 +2185,8 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="21"/>
-      <c r="B47" s="19"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="10" t="s">
         <v>95</v>
       </c>
@@ -2185,8 +2195,8 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="21"/>
-      <c r="B48" s="19"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="10" t="s">
         <v>97</v>
       </c>
@@ -2195,8 +2205,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="21"/>
-      <c r="B49" s="19"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="10" t="s">
         <v>99</v>
       </c>
@@ -2205,8 +2215,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="21"/>
-      <c r="B50" s="19"/>
+      <c r="A50" s="24"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="10" t="s">
         <v>101</v>
       </c>
@@ -2215,657 +2225,659 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="21"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>105</v>
+      <c r="D51" s="13" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="21"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="19"/>
       <c r="C52" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="21"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="19"/>
       <c r="C53" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>109</v>
-      </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="21"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="19"/>
       <c r="C54" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="21"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="19"/>
       <c r="C55" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="21"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="19"/>
       <c r="C56" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="15" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="21"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="19"/>
       <c r="C57" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="21"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="19"/>
       <c r="C58" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D58" s="15" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="21"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="19"/>
       <c r="C59" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D59" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="D59" s="15" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="21"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="19"/>
       <c r="C60" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="15" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="21"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="19"/>
       <c r="C61" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D61" s="15" t="s">
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="24"/>
+      <c r="B62" s="19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="21"/>
-      <c r="B62" s="19" t="s">
+      <c r="C62" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="D62" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="21"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="19"/>
       <c r="C63" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>130</v>
-      </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="21"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="19"/>
       <c r="C64" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="21"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="19"/>
       <c r="C65" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="21"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="19"/>
       <c r="C66" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D66" s="15" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="21"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="19"/>
       <c r="C67" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="21"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="19"/>
       <c r="C68" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="21"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="19"/>
       <c r="C69" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="15" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="21"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="19"/>
       <c r="C70" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="15" t="s">
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="24"/>
+      <c r="B71" s="19" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="21"/>
-      <c r="B71" s="19" t="s">
+      <c r="C71" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="21"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="19"/>
       <c r="C72" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>149</v>
-      </c>
     </row>
     <row r="73" spans="1:4" ht="27">
-      <c r="A73" s="21"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="19"/>
       <c r="C73" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>151</v>
-      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="21"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="19"/>
       <c r="C74" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="D74" s="15" t="s">
-        <v>153</v>
-      </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="21"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="19"/>
       <c r="C75" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D75" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D75" s="15" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="21"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="19"/>
       <c r="C76" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D76" s="11" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="21"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="19"/>
       <c r="C77" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D77" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D77" s="11" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="21"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="19"/>
       <c r="C78" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="11" t="s">
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="24"/>
+      <c r="B79" s="19" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="21"/>
-      <c r="B79" s="19" t="s">
+      <c r="C79" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="D79" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="15" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="21"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="19"/>
       <c r="C80" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D80" s="11" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="21"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="19"/>
       <c r="C81" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D81" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="21"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="19"/>
       <c r="C82" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>169</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="C83" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="D83" s="11" t="s">
         <v>173</v>
-      </c>
-      <c r="D83" s="11" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D86" s="11" t="s">
         <v>179</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B87" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="C87" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="D87" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="D87" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="D88" s="11" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90" s="11" t="s">
         <v>189</v>
-      </c>
-      <c r="D90" s="11" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>191</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>195</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D94" s="11" t="s">
         <v>197</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>199</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="D96" s="11" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>206</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>210</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D103" s="11" t="s">
         <v>213</v>
-      </c>
-      <c r="D103" s="11" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="D105" s="11" t="s">
         <v>217</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="19"/>
       <c r="B106" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C106" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D106" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D107" s="11" t="s">
         <v>220</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D108" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
       <c r="C109" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="27">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="19"/>
       <c r="B111" s="19"/>
       <c r="C111" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D111" s="11" t="s">
         <v>228</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="19"/>
       <c r="B112" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C112" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>224</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
       <c r="C113" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B106:B111"/>
+    <mergeCell ref="B112:B113"/>
     <mergeCell ref="C15:C25"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A82"/>
@@ -2881,8 +2893,6 @@
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="B83:B86"/>
     <mergeCell ref="B87:B105"/>
-    <mergeCell ref="B106:B111"/>
-    <mergeCell ref="B112:B113"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
@@ -2914,7 +2924,7 @@
     <hyperlink ref="D39" r:id="rId26" tooltip="http://www.chinaports.com/portlspnews/1-20-hot-null/query"/>
     <hyperlink ref="D48" r:id="rId27"/>
     <hyperlink ref="D50" r:id="rId28"/>
-    <hyperlink ref="D51" r:id="rId29" tooltip="http://www.rail-transit.com/List_News2.aspx?CateID=1"/>
+    <hyperlink ref="D51" r:id="rId29"/>
     <hyperlink ref="D52" r:id="rId30" tooltip="http://www.rail-transit.com/List_News2.aspx?CateID=2"/>
     <hyperlink ref="D53" r:id="rId31"/>
     <hyperlink ref="D54" r:id="rId32"/>
